--- a/xyz.hotchpotch.hogandiff/src/main/resources/result_tree.xlsx
+++ b/xyz.hotchpotch.hogandiff/src/main/resources/result_tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya_na\git\hogandiff4\xyz.hotchpotch.hogandiff\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F14B419-71F9-4EB0-AAEF-502A043E067C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48260AA1-D73C-4C4D-8041-726B1615E7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,10 +43,10 @@
             <rFont val="Consolas"/>
             <family val="3"/>
           </rPr>
-          <t>(blank) : no diffs detected
-! : diffs detected
-? : comparison failed
-&lt;, &gt; : not matched</t>
+          <t>(blank) : No diffs detected
+! : Diffs detected
+? : Comparison failed
+&lt;, &gt; : Not matched</t>
         </r>
       </text>
     </comment>
@@ -345,28 +345,7 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="9" tint="0.59996337778862885"/>
-      </font>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -771,7 +750,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="D1:L6"/>
+  <dimension ref="D1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
@@ -795,7 +774,7 @@
     <col min="13" max="16384" width="2.5625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:12">
+    <row r="1" spans="4:13">
       <c r="D1" s="7"/>
       <c r="E1" s="15"/>
       <c r="F1" s="14"/>
@@ -804,11 +783,12 @@
       <c r="I1" s="7"/>
       <c r="J1" s="1"/>
       <c r="K1" s="7"/>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="12"/>
+      <c r="M1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="4:12">
+    <row r="2" spans="4:13">
       <c r="D2" s="7"/>
       <c r="E2" s="15"/>
       <c r="F2" s="14"/>
@@ -817,11 +797,12 @@
       <c r="I2" s="7"/>
       <c r="J2" s="1"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="13"/>
+      <c r="M2" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="4:12">
+    <row r="3" spans="4:13">
       <c r="D3" s="7"/>
       <c r="E3" s="15"/>
       <c r="F3" s="14"/>
@@ -832,7 +813,7 @@
       <c r="K3" s="7"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="4:12">
+    <row r="4" spans="4:13">
       <c r="D4" s="4"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -843,7 +824,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="4:12" hidden="1">
+    <row r="5" spans="4:13" hidden="1">
       <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
@@ -872,7 +853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="4:12">
+    <row r="6" spans="4:13">
       <c r="D6" s="16" t="s">
         <v>2</v>
       </c>
@@ -891,34 +872,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="I1:J1048576 D5:E1048576">
-    <cfRule type="expression" dxfId="5" priority="4">
+  <conditionalFormatting sqref="D1:E1048576 I1:J1048576">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula xml:space="preserve"> AND(D1&lt;&gt;"", E1&lt;&gt;"", F1&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:L1048576">
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula xml:space="preserve"> OR(AND($E5&lt;&gt;"", $F5=""), AND($J5&lt;&gt;"", $K5=""))</formula>
+  <conditionalFormatting sqref="D1:L1048576">
+    <cfRule type="expression" dxfId="1" priority="8">
+      <formula xml:space="preserve"> OR(AND($E1&lt;&gt;"", $F1=""), AND($J1&lt;&gt;"", $K1=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7">
-      <formula xml:space="preserve"> OR($H5 = "!", $H5 = "&lt;", $H5 = "&gt;")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D4">
-    <cfRule type="expression" dxfId="2" priority="9">
-      <formula xml:space="preserve"> AND(D1&lt;&gt;"", #REF!&lt;&gt;"", #REF!&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D4 G1:L4">
-    <cfRule type="expression" dxfId="1" priority="12">
-      <formula xml:space="preserve"> OR(AND(#REF!&lt;&gt;"", #REF!=""), AND($J1&lt;&gt;"", $K1=""))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="13">
+    <cfRule type="expression" dxfId="0" priority="9">
       <formula xml:space="preserve"> OR($H1 = "!", $H1 = "&lt;", $H1 = "&gt;")</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{7131EEA8-9FCC-4204-B0A1-3EAADDA0DEEA}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{34AB3549-A921-466A-BB1E-BB5E0630B0F6}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/xyz.hotchpotch.hogandiff/src/main/resources/result_tree.xlsx
+++ b/xyz.hotchpotch.hogandiff/src/main/resources/result_tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya_na\git\hogandiff4\xyz.hotchpotch.hogandiff\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48260AA1-D73C-4C4D-8041-726B1615E7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AB3087-914C-4F1A-AAD2-28DECC589312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="result" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">result!$H$6:$H$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">result!$H$7:$H$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
     <author>姓名</author>
   </authors>
   <commentList>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{7417E6E2-48FC-44B6-B3F5-C1E7280C5EF9}">
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{7417E6E2-48FC-44B6-B3F5-C1E7280C5EF9}">
       <text>
         <r>
           <rPr>
@@ -88,6 +88,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ \ h:mm"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -275,7 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -338,6 +341,9 @@
       <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -750,10 +756,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="D1:M6"/>
+  <dimension ref="D1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -776,9 +782,9 @@
   <sheetData>
     <row r="1" spans="4:13">
       <c r="D1" s="7"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="1"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="3"/>
       <c r="I1" s="7"/>
       <c r="J1" s="1"/>
@@ -814,70 +820,84 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="4:13">
-      <c r="D4" s="4"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="5"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="4:13" hidden="1">
-      <c r="D5" s="8" t="s">
+    <row r="5" spans="4:13">
+      <c r="D5" s="4"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="4:13" hidden="1">
+      <c r="D6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="4:13">
-      <c r="D6" s="16" t="s">
+    <row r="7" spans="4:13">
+      <c r="D7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="21" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="20"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="20"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D1:E1048576 I1:J1048576">
     <cfRule type="expression" dxfId="2" priority="6">
       <formula xml:space="preserve"> AND(D1&lt;&gt;"", E1&lt;&gt;"", F1&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:L1048576">
+  <conditionalFormatting sqref="D2:L1048576 D1:F1 H1:L1">
     <cfRule type="expression" dxfId="1" priority="8">
       <formula xml:space="preserve"> OR(AND($E1&lt;&gt;"", $F1=""), AND($J1&lt;&gt;"", $K1=""))</formula>
     </cfRule>

--- a/xyz.hotchpotch.hogandiff/src/main/resources/result_tree.xlsx
+++ b/xyz.hotchpotch.hogandiff/src/main/resources/result_tree.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya_na\git\hogandiff4\xyz.hotchpotch.hogandiff\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202412/hogandiff4/xyz.hotchpotch.hogandiff/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AB3087-914C-4F1A-AAD2-28DECC589312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E5AB3087-914C-4F1A-AAD2-28DECC589312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EA020D6-1E54-4810-AFAA-3770771967FD}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>方眼Diff © 2018-2024 nmby</t>
+    <t>方眼Diff © 2018-2025 nmby</t>
     <rPh sb="0" eb="2">
       <t>ホウガン</t>
     </rPh>
@@ -897,7 +897,7 @@
       <formula xml:space="preserve"> AND(D1&lt;&gt;"", E1&lt;&gt;"", F1&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:L1048576 D1:F1 H1:L1">
+  <conditionalFormatting sqref="D1:F1 H1:L1 D2:L1048576">
     <cfRule type="expression" dxfId="1" priority="8">
       <formula xml:space="preserve"> OR(AND($E1&lt;&gt;"", $F1=""), AND($J1&lt;&gt;"", $K1=""))</formula>
     </cfRule>
